--- a/biology/Botanique/Crataego_monogynae-Prunetea_spinosae/Crataego_monogynae-Prunetea_spinosae.xlsx
+++ b/biology/Botanique/Crataego_monogynae-Prunetea_spinosae/Crataego_monogynae-Prunetea_spinosae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En phytosociologie, la classe Crataego monogynae-Prunetea spinosae est une association de plantes principalement européennes, constituée d'arbustes (haies) de type fruticées (formation végétale constituée d'arbustes tels que le Prunelier, l'Aubépine ou l'Églantier…) typiques des manteaux forestiers. Cette classe est définie par Tüxen, 1962.
@@ -512,7 +524,9 @@
           <t>Les espèces caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces les plus communes dans ce type de végétation sont les suivantes :
 Prunelier (Prunus spinosa)
